--- a/xlsx/伊拉克临时政府_intext.xlsx
+++ b/xlsx/伊拉克临时政府_intext.xlsx
@@ -29,7 +29,7 @@
     <t>2003年9月</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊拉克临时政府</t>
+    <t>政策_政策_美国_伊拉克临时政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B45%E6%9C%88</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE%E7%A9%86%E6%96%AF%E6%9E%97</t>
   </si>
   <si>
-    <t>什葉派穆斯林</t>
+    <t>什叶派穆斯林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE%E7%A9%86%E6%96%AF%E6%9E%97</t>
   </si>
   <si>
-    <t>遜尼派穆斯林</t>
+    <t>逊尼派穆斯林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%8B%89%E5%8B%92%C2%B7%E5%A1%94%E6%8B%89%E5%B7%B4%E5%B0%BC</t>
